--- a/feature-types-AAT_20210118.xlsx
+++ b/feature-types-AAT_20210118.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/linked-places/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9EF0E1-5FDA-A343-8B8F-ED243460B600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85FF75-A788-7543-AA38-B217E255CFAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="26560" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aat concepts of interest" sheetId="1" r:id="rId1"/>
-    <sheet name="wikidata mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="wikidata mappings (partial)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="600">
   <si>
     <t>addl parent</t>
   </si>
@@ -1456,226 +1456,10 @@
     <t>aat_label</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>aat:300008347</t>
-  </si>
-  <si>
-    <t>aat:300128207</t>
-  </si>
-  <si>
-    <t>aat:300182722</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
-    <t>aat:300387171</t>
-  </si>
-  <si>
-    <t>aat:300000810</t>
-  </si>
-  <si>
-    <t>aat:300008707</t>
-  </si>
-  <si>
-    <t>aat:300008791</t>
-  </si>
-  <si>
-    <t>aat:300000774</t>
-  </si>
-  <si>
-    <t>aat:300235118</t>
-  </si>
-  <si>
-    <t>aat:300386853</t>
-  </si>
-  <si>
-    <t>aat:300008680</t>
-  </si>
-  <si>
-    <t>aat:300387272</t>
-  </si>
-  <si>
-    <t>aat:300006888</t>
-  </si>
-  <si>
-    <t>aat:300386831</t>
-  </si>
-  <si>
-    <t>aat:300008694</t>
-  </si>
-  <si>
-    <t>aat:300005903</t>
-  </si>
-  <si>
-    <t>aat:300386176</t>
-  </si>
-  <si>
-    <t>aat:300000776</t>
-  </si>
-  <si>
-    <t>aat:300004790</t>
-  </si>
-  <si>
-    <t>aat:300235099</t>
-  </si>
-  <si>
-    <t>aat:300008795</t>
-  </si>
-  <si>
-    <t>aat:300132315</t>
-  </si>
-  <si>
-    <t>aat:300387499</t>
-  </si>
-  <si>
-    <t>aat:300000455</t>
-  </si>
-  <si>
-    <t>aat:300387137</t>
-  </si>
-  <si>
-    <t>aat:300387217</t>
-  </si>
-  <si>
-    <t>aat:300008916</t>
-  </si>
-  <si>
-    <t>aat:300236153</t>
-  </si>
-  <si>
-    <t>aat:300132316</t>
-  </si>
-  <si>
-    <t>aat:300008439</t>
-  </si>
-  <si>
-    <t>aat:300120364</t>
-  </si>
-  <si>
-    <t>aat:300132656</t>
-  </si>
-  <si>
-    <t>aat:300008217</t>
-  </si>
-  <si>
-    <t>aat:300006075</t>
-  </si>
-  <si>
-    <t>aat:300257640</t>
-  </si>
-  <si>
-    <t>aat:300000277</t>
-  </si>
-  <si>
-    <t>aat:300266060</t>
-  </si>
-  <si>
     <t>landform</t>
-  </si>
-  <si>
-    <t>aat:300387318</t>
-  </si>
-  <si>
-    <t>aat:300000809</t>
-  </si>
-  <si>
-    <t>aat:300006165</t>
-  </si>
-  <si>
-    <t>aat:300000401</t>
-  </si>
-  <si>
-    <t>aat:300008686</t>
-  </si>
-  <si>
-    <t>aat:300008835</t>
-  </si>
-  <si>
-    <t>aat:300000390</t>
-  </si>
-  <si>
-    <t>aat:300386595</t>
-  </si>
-  <si>
-    <t>aat:300259572</t>
-  </si>
-  <si>
-    <t>aat:300000750</t>
-  </si>
-  <si>
-    <t>aat:300008777</t>
-  </si>
-  <si>
-    <t>aat:300006617</t>
-  </si>
-  <si>
-    <t>aat:300008591</t>
-  </si>
-  <si>
-    <t>aat:300387006</t>
-  </si>
-  <si>
-    <t>aat:300417317</t>
-  </si>
-  <si>
-    <t>aat:300005072</t>
-  </si>
-  <si>
-    <t>aat:300008805</t>
-  </si>
-  <si>
-    <t>aat:300008687</t>
-  </si>
-  <si>
-    <t>aat:300185707</t>
-  </si>
-  <si>
-    <t>aat:300008736</t>
-  </si>
-  <si>
-    <t>aat:300387025</t>
-  </si>
-  <si>
-    <t>aat:300386845</t>
-  </si>
-  <si>
-    <t>aat:300008761</t>
-  </si>
-  <si>
-    <t>aat:300008676</t>
-  </si>
-  <si>
-    <t>aat:300128176</t>
-  </si>
-  <si>
-    <t>aat:300008899</t>
-  </si>
-  <si>
-    <t>aat:300008057</t>
-  </si>
-  <si>
-    <t>aat:300008678</t>
-  </si>
-  <si>
-    <t>aat:300266571</t>
-  </si>
-  <si>
-    <t>aat:300008760</t>
-  </si>
-  <si>
-    <t>aat:300008679</t>
-  </si>
-  <si>
-    <t>aat:300387107</t>
-  </si>
-  <si>
-    <t>aat:300006191</t>
-  </si>
-  <si>
-    <t>aat:300120599</t>
   </si>
   <si>
     <t>human settlement</t>
@@ -2592,8 +2376,8 @@
   <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3610,14 +3394,14 @@
         <v>300235096</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>649</v>
+        <v>577</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>667</v>
+        <v>595</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="31" t="s">
-        <v>668</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4208,10 +3992,10 @@
         <v>300125766</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>666</v>
+        <v>594</v>
       </c>
       <c r="F81" s="29"/>
     </row>
@@ -4400,14 +4184,14 @@
         <v>300007836</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>659</v>
+        <v>587</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>660</v>
+        <v>588</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="32" t="s">
-        <v>661</v>
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
@@ -5012,14 +4796,14 @@
         <v>300386846</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>669</v>
+        <v>597</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="F122" s="28"/>
       <c r="G122" s="32" t="s">
-        <v>671</v>
+        <v>599</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
@@ -5410,14 +5194,14 @@
         <v>300379998</v>
       </c>
       <c r="D142" s="62" t="s">
-        <v>662</v>
+        <v>590</v>
       </c>
       <c r="E142" s="62" t="s">
-        <v>663</v>
+        <v>591</v>
       </c>
       <c r="F142" s="28"/>
       <c r="G142" s="32" t="s">
-        <v>664</v>
+        <v>592</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
@@ -5890,2344 +5674,1919 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C16" sqref="C16"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20">
+        <v>300008347</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="20">
+        <v>300128207</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>5541</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" s="20">
+        <v>300182722</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="20">
+        <v>300387171</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="20">
+        <v>300000810</v>
+      </c>
+      <c r="C6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="20">
+        <v>300008707</v>
+      </c>
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="20">
+        <v>300008791</v>
+      </c>
+      <c r="C8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="20">
+        <v>300000774</v>
+      </c>
+      <c r="C9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="20">
+        <v>300235118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="20">
+        <v>300386853</v>
+      </c>
+      <c r="C11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="20">
+        <v>300008680</v>
+      </c>
+      <c r="C12" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="20">
+        <v>300387272</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F13" t="s">
+        <v>477</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="20">
+        <v>300006888</v>
+      </c>
+      <c r="C14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="20">
+        <v>300386831</v>
+      </c>
+      <c r="C15" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" s="20">
+        <v>300008694</v>
+      </c>
+      <c r="C16" t="s">
+        <v>497</v>
+      </c>
+      <c r="F16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="20">
+        <v>300005903</v>
+      </c>
+      <c r="C17" t="s">
+        <v>499</v>
+      </c>
+      <c r="F17" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="20">
+        <v>300386176</v>
+      </c>
+      <c r="C18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="20">
+        <v>300000776</v>
+      </c>
+      <c r="C19" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="20">
+        <v>300004790</v>
+      </c>
+      <c r="C20" t="s">
+        <v>504</v>
+      </c>
+      <c r="D20" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" t="s">
+        <v>505</v>
+      </c>
+      <c r="G20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="20">
+        <v>300235099</v>
+      </c>
+      <c r="C21" t="s">
+        <v>506</v>
+      </c>
+      <c r="D21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="20">
+        <v>300008795</v>
+      </c>
+      <c r="C22" t="s">
+        <v>509</v>
+      </c>
+      <c r="F22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="20">
+        <v>300132315</v>
+      </c>
+      <c r="C23" t="s">
+        <v>510</v>
+      </c>
+      <c r="F23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="20">
+        <v>300387499</v>
+      </c>
+      <c r="C24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D24" t="s">
+        <v>512</v>
+      </c>
+      <c r="E24" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" t="s">
+        <v>365</v>
+      </c>
+      <c r="G24" t="s">
+        <v>513</v>
+      </c>
+      <c r="H24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="20">
+        <v>300000455</v>
+      </c>
+      <c r="C25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E25" t="s">
+        <v>495</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>517</v>
+      </c>
+      <c r="H25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="20">
+        <v>300387137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>518</v>
+      </c>
+      <c r="D26" t="s">
+        <v>491</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="20">
+        <v>300387217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>519</v>
+      </c>
+      <c r="F27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="20">
+        <v>300008916</v>
+      </c>
+      <c r="C28" t="s">
+        <v>521</v>
+      </c>
+      <c r="F28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="20">
+        <v>300236153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" s="20">
+        <v>300132316</v>
+      </c>
+      <c r="C30" t="s">
+        <v>524</v>
+      </c>
+      <c r="F30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="20">
+        <v>300008439</v>
+      </c>
+      <c r="C31" t="s">
+        <v>525</v>
+      </c>
+      <c r="D31" t="s">
+        <v>515</v>
+      </c>
+      <c r="E31" t="s">
+        <v>516</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="20">
+        <v>300120364</v>
+      </c>
+      <c r="C32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D32" t="s">
+        <v>504</v>
+      </c>
+      <c r="F32" t="s">
+        <v>527</v>
+      </c>
+      <c r="G32" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="20">
+        <v>300132656</v>
+      </c>
+      <c r="C33" t="s">
+        <v>528</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="20">
+        <v>300008217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>529</v>
+      </c>
+      <c r="F34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35" s="20">
+        <v>300006075</v>
+      </c>
+      <c r="C35" t="s">
+        <v>530</v>
+      </c>
+      <c r="F35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="20">
+        <v>300257640</v>
+      </c>
+      <c r="C36" t="s">
+        <v>531</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="20">
+        <v>300000277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>532</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>476</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="20">
-        <v>300008347</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B38" s="20">
+        <v>300266060</v>
+      </c>
+      <c r="C38" t="s">
+        <v>533</v>
+      </c>
+      <c r="F38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="20">
+        <v>300387318</v>
+      </c>
+      <c r="C39" t="s">
+        <v>534</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F39" t="s">
+        <v>535</v>
+      </c>
+      <c r="G39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="20">
+        <v>300000809</v>
+      </c>
+      <c r="C40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D40" t="s">
+        <v>504</v>
+      </c>
+      <c r="E40" t="s">
+        <v>502</v>
+      </c>
+      <c r="F40" t="s">
+        <v>483</v>
+      </c>
+      <c r="G40" t="s">
+        <v>505</v>
+      </c>
+      <c r="H40" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="20">
+        <v>300006165</v>
+      </c>
+      <c r="C41" t="s">
+        <v>536</v>
+      </c>
+      <c r="F41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="20">
+        <v>300000401</v>
+      </c>
+      <c r="C42" t="s">
+        <v>537</v>
+      </c>
+      <c r="F42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="20">
+        <v>300008686</v>
+      </c>
+      <c r="C43" t="s">
+        <v>538</v>
+      </c>
+      <c r="F43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>430</v>
+      </c>
+      <c r="B44" s="20">
+        <v>300008835</v>
+      </c>
+      <c r="C44" t="s">
+        <v>539</v>
+      </c>
+      <c r="F44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="20">
+        <v>300000390</v>
+      </c>
+      <c r="C45" t="s">
+        <v>540</v>
+      </c>
+      <c r="F45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" s="20">
+        <v>300386595</v>
+      </c>
+      <c r="C46" t="s">
+        <v>541</v>
+      </c>
+      <c r="D46" t="s">
+        <v>544</v>
+      </c>
+      <c r="F46" t="s">
+        <v>542</v>
+      </c>
+      <c r="G46" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="20">
+        <v>300259572</v>
+      </c>
+      <c r="C47" t="s">
+        <v>545</v>
+      </c>
+      <c r="F47" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="20">
+        <v>300000750</v>
+      </c>
+      <c r="C48" t="s">
+        <v>547</v>
+      </c>
+      <c r="F48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" s="20">
+        <v>300008777</v>
+      </c>
+      <c r="C49" t="s">
+        <v>548</v>
+      </c>
+      <c r="F49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="20">
+        <v>300006617</v>
+      </c>
+      <c r="C50" t="s">
+        <v>549</v>
+      </c>
+      <c r="F50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" s="20">
+        <v>300008591</v>
+      </c>
+      <c r="C51" t="s">
         <v>550</v>
       </c>
-      <c r="H2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1476</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F51" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="20">
+        <v>300387006</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" t="s">
         <v>477</v>
       </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="20">
-        <v>300128207</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="20">
+        <v>300417317</v>
+      </c>
+      <c r="C53" t="s">
+        <v>552</v>
+      </c>
+      <c r="F53" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="20">
+        <v>300005072</v>
+      </c>
+      <c r="C54" t="s">
+        <v>553</v>
+      </c>
+      <c r="D54" t="s">
+        <v>554</v>
+      </c>
+      <c r="F54" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55" s="20">
+        <v>300008805</v>
+      </c>
+      <c r="C55" t="s">
+        <v>556</v>
+      </c>
+      <c r="F55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>448</v>
+      </c>
+      <c r="B56" s="20">
+        <v>300008687</v>
+      </c>
+      <c r="C56" t="s">
+        <v>557</v>
+      </c>
+      <c r="F56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>463</v>
+      </c>
+      <c r="B57" s="20">
+        <v>300185707</v>
+      </c>
+      <c r="C57" t="s">
+        <v>558</v>
+      </c>
+      <c r="F57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>415</v>
+      </c>
+      <c r="B58" s="20">
+        <v>300008736</v>
+      </c>
+      <c r="C58" t="s">
+        <v>559</v>
+      </c>
+      <c r="F58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="20">
+        <v>300387025</v>
+      </c>
+      <c r="C59" t="s">
+        <v>560</v>
+      </c>
+      <c r="F59" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="20">
+        <v>300386845</v>
+      </c>
+      <c r="C60" t="s">
+        <v>562</v>
+      </c>
+      <c r="F60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>395</v>
+      </c>
+      <c r="B61" s="20">
+        <v>300008761</v>
+      </c>
+      <c r="C61" t="s">
+        <v>563</v>
+      </c>
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>433</v>
+      </c>
+      <c r="B62" s="20">
+        <v>300008676</v>
+      </c>
+      <c r="C62" t="s">
+        <v>564</v>
+      </c>
+      <c r="F62" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="20">
+        <v>300128176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>566</v>
+      </c>
+      <c r="F63" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" s="20">
+        <v>300008899</v>
+      </c>
+      <c r="C64" t="s">
+        <v>567</v>
+      </c>
+      <c r="F64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" s="20">
+        <v>300008057</v>
+      </c>
+      <c r="C65" t="s">
+        <v>568</v>
+      </c>
+      <c r="F65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>407</v>
+      </c>
+      <c r="B66" s="20">
+        <v>300008678</v>
+      </c>
+      <c r="C66" t="s">
+        <v>569</v>
+      </c>
+      <c r="F66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>454</v>
+      </c>
+      <c r="B67" s="20">
+        <v>300266571</v>
+      </c>
+      <c r="C67" t="s">
+        <v>570</v>
+      </c>
+      <c r="F67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="20">
+        <v>300008760</v>
+      </c>
+      <c r="C68" t="s">
+        <v>571</v>
+      </c>
+      <c r="F68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69" s="20">
+        <v>300008679</v>
+      </c>
+      <c r="C69" t="s">
+        <v>572</v>
+      </c>
+      <c r="F69" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="20">
+        <v>300387107</v>
+      </c>
+      <c r="C70" t="s">
         <v>573</v>
       </c>
-      <c r="G3" t="s">
-        <v>657</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F70" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="20">
+        <v>300006191</v>
+      </c>
+      <c r="C71" t="s">
+        <v>574</v>
+      </c>
+      <c r="F71" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="20">
+        <v>300120599</v>
+      </c>
+      <c r="C72" t="s">
+        <v>575</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="21"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="17">
+        <v>300263063</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="17">
+        <v>300232418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="17">
+        <v>300000681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="17">
+        <v>300387007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="17">
+        <v>300235087</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="17">
+        <v>300387130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="17">
+        <v>300264084</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" s="17">
+        <v>300000835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="17">
+        <v>300387616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>406</v>
+      </c>
+      <c r="B85" s="17">
+        <v>300266059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" s="17">
+        <v>300387143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="17">
+        <v>300000201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="17">
+        <v>300387004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="17">
+        <v>300264389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="17">
+        <v>300008850</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B91" s="17">
+        <v>300008746</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>398</v>
+      </c>
+      <c r="B92" s="17">
+        <v>300129031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="17">
+        <v>300266755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="17">
+        <v>300387000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" s="17">
+        <v>300263489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="17">
+        <v>300374944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="17">
+        <v>300008389</v>
+      </c>
+      <c r="C97" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17">
+        <v>300235115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="17">
+        <v>300387203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="17">
+        <v>300000202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="17">
+        <v>300387268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>818</v>
-      </c>
-      <c r="B4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" s="20">
-        <v>300182722</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="H4" t="s">
-        <v>555</v>
-      </c>
-      <c r="I4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>645</v>
-      </c>
-      <c r="B5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="20">
-        <v>300387171</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="H5" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>464</v>
-      </c>
-      <c r="B6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="20">
-        <v>300000810</v>
-      </c>
-      <c r="E6" t="s">
-        <v>558</v>
-      </c>
-      <c r="H6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>352</v>
-      </c>
-      <c r="B7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="20">
-        <v>300008707</v>
-      </c>
-      <c r="E7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B102" s="17">
+        <v>300387506</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="17">
+        <v>300000771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" s="17">
+        <v>300008932</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="17">
+        <v>300386114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>276</v>
       </c>
-      <c r="B8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D8" s="20">
-        <v>300008791</v>
-      </c>
-      <c r="E8" t="s">
-        <v>560</v>
-      </c>
-      <c r="H8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>185</v>
-      </c>
-      <c r="B9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="20">
-        <v>300000774</v>
-      </c>
-      <c r="E9" t="s">
-        <v>561</v>
-      </c>
-      <c r="H9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B106" s="17">
+        <v>300006084</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107" s="17">
+        <v>300235114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>356</v>
+      </c>
+      <c r="B108" s="17">
+        <v>300386860</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="17">
+        <v>300167671</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>252</v>
+      </c>
+      <c r="B110" s="17">
+        <v>300000705</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="17">
+        <v>300387498</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="17">
+        <v>300235088</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="17">
+        <v>300128214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>100</v>
+      </c>
+      <c r="B115" s="17">
+        <v>300412029</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="17">
+        <v>300387184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>166</v>
       </c>
-      <c r="B10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="20">
-        <v>300235118</v>
-      </c>
-      <c r="E10" t="s">
-        <v>563</v>
-      </c>
-      <c r="H10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="20">
-        <v>300386853</v>
-      </c>
-      <c r="E11" t="s">
-        <v>564</v>
-      </c>
-      <c r="H11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C12" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" s="20">
-        <v>300008680</v>
-      </c>
-      <c r="E12" t="s">
-        <v>565</v>
-      </c>
-      <c r="H12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B117" s="17">
+        <v>300192630</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>404</v>
+      </c>
+      <c r="B118" s="17">
+        <v>300386857</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" s="17">
+        <v>300008063</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B120" s="17">
+        <v>300387178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" s="17">
+        <v>300006073</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>309</v>
+      </c>
+      <c r="B122" s="17">
+        <v>300155846</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="17">
+        <v>300387347</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="20">
-        <v>300387272</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F13" t="s">
-        <v>558</v>
-      </c>
-      <c r="H13" t="s">
-        <v>549</v>
-      </c>
-      <c r="I13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="20">
-        <v>300006888</v>
-      </c>
-      <c r="E14" t="s">
-        <v>567</v>
-      </c>
-      <c r="H14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>490</v>
-      </c>
-      <c r="C15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" s="20">
-        <v>300386831</v>
-      </c>
-      <c r="E15" t="s">
-        <v>568</v>
-      </c>
-      <c r="H15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>491</v>
-      </c>
-      <c r="C16" t="s">
-        <v>451</v>
-      </c>
-      <c r="D16" s="20">
-        <v>300008694</v>
-      </c>
-      <c r="E16" t="s">
-        <v>569</v>
-      </c>
-      <c r="H16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>492</v>
-      </c>
-      <c r="C17" t="s">
-        <v>288</v>
-      </c>
-      <c r="D17" s="20">
-        <v>300005903</v>
-      </c>
-      <c r="E17" t="s">
-        <v>571</v>
-      </c>
-      <c r="H17" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>493</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="20">
-        <v>300386176</v>
-      </c>
-      <c r="E18" t="s">
-        <v>572</v>
-      </c>
-      <c r="H18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>494</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="20">
-        <v>300000776</v>
-      </c>
-      <c r="E19" t="s">
-        <v>573</v>
-      </c>
-      <c r="H19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>495</v>
-      </c>
-      <c r="C20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="20">
-        <v>300004790</v>
-      </c>
-      <c r="E20" t="s">
-        <v>576</v>
-      </c>
-      <c r="F20" t="s">
-        <v>574</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="B124" s="17">
+        <v>300387062</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" s="17">
+        <v>300235095</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>577</v>
       </c>
-      <c r="I20" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>496</v>
-      </c>
-      <c r="C21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="20">
-        <v>300235099</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B126" s="17">
+        <v>300235096</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="17">
+        <v>300387216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="17">
+        <v>300008537</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" s="17">
+        <v>300164060</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="17">
+        <v>300410262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>340</v>
+      </c>
+      <c r="B131" s="17">
+        <v>300132294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>315</v>
+      </c>
+      <c r="B132" s="17">
+        <v>300008072</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" s="17">
+        <v>300005734</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>337</v>
+      </c>
+      <c r="B134" s="17">
+        <v>300008321</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>470</v>
+      </c>
+      <c r="B135" s="17">
+        <v>300008804</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>163</v>
+      </c>
+      <c r="B136" s="17">
+        <v>300024979</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>328</v>
+      </c>
+      <c r="B137" s="17">
+        <v>300265367</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>392</v>
+      </c>
+      <c r="B138" s="17">
+        <v>300132339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" s="17">
+        <v>300261086</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" s="17">
+        <v>300236157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>469</v>
+      </c>
+      <c r="B141" s="17">
+        <v>300417385</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="17">
+        <v>300235101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>231</v>
+      </c>
+      <c r="B143" s="17">
+        <v>300263741</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>410</v>
+      </c>
+      <c r="B144" s="17">
+        <v>300132312</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>322</v>
+      </c>
+      <c r="B145" s="17">
+        <v>300265365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="17">
+        <v>300008542</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>198</v>
+      </c>
+      <c r="B147" s="17">
+        <v>300386998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>442</v>
+      </c>
+      <c r="B148" s="17">
+        <v>300266556</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" s="17">
+        <v>300235105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>445</v>
+      </c>
+      <c r="B150" s="17">
+        <v>300266558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>68</v>
+      </c>
+      <c r="B151" s="17">
+        <v>300232420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>418</v>
+      </c>
+      <c r="B152" s="17">
+        <v>300008697</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>578</v>
       </c>
-      <c r="F21" t="s">
-        <v>579</v>
-      </c>
-      <c r="H21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" s="20">
-        <v>300008795</v>
-      </c>
-      <c r="E22" t="s">
-        <v>581</v>
-      </c>
-      <c r="H22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>498</v>
-      </c>
-      <c r="C23" t="s">
-        <v>427</v>
-      </c>
-      <c r="D23" s="20">
-        <v>300132315</v>
-      </c>
-      <c r="E23" t="s">
-        <v>582</v>
-      </c>
-      <c r="H23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>499</v>
-      </c>
-      <c r="C24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D24" s="20">
-        <v>300387499</v>
-      </c>
-      <c r="E24" t="s">
-        <v>583</v>
-      </c>
-      <c r="F24" t="s">
-        <v>584</v>
-      </c>
-      <c r="G24" t="s">
-        <v>586</v>
-      </c>
-      <c r="H24" t="s">
-        <v>365</v>
-      </c>
-      <c r="I24" t="s">
-        <v>585</v>
-      </c>
-      <c r="J24" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="20">
-        <v>300000455</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B153" s="17">
+        <v>300008699</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="17">
+        <v>300235106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" s="17">
+        <v>300135982</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>15</v>
+      </c>
+      <c r="B156" s="17">
+        <v>300008375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>331</v>
+      </c>
+      <c r="B157" s="17">
+        <v>300265366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158" s="17">
+        <v>300000678</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" s="17">
+        <v>300122438</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160" s="17">
+        <v>300403959</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="17">
+        <v>300008372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" s="17">
+        <v>300008312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>460</v>
+      </c>
+      <c r="B163" s="17">
+        <v>300387029</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>593</v>
+      </c>
+      <c r="B164" s="17">
+        <v>300125766</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>587</v>
       </c>
-      <c r="F25" t="s">
-        <v>588</v>
-      </c>
-      <c r="G25" t="s">
-        <v>567</v>
-      </c>
-      <c r="H25" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" t="s">
-        <v>589</v>
-      </c>
-      <c r="J25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>501</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="20">
-        <v>300387137</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B165" s="17">
+        <v>300007836</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>590</v>
       </c>
-      <c r="F26" t="s">
-        <v>563</v>
-      </c>
-      <c r="H26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>502</v>
-      </c>
-      <c r="C27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D27" s="20">
-        <v>300387217</v>
-      </c>
-      <c r="E27" t="s">
-        <v>591</v>
-      </c>
-      <c r="H27" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>503</v>
-      </c>
-      <c r="C28" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="20">
-        <v>300008916</v>
-      </c>
-      <c r="E28" t="s">
-        <v>593</v>
-      </c>
-      <c r="H28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>504</v>
-      </c>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="20">
-        <v>300236153</v>
-      </c>
-      <c r="E29" t="s">
-        <v>594</v>
-      </c>
-      <c r="H29" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>505</v>
-      </c>
-      <c r="C30" t="s">
-        <v>424</v>
-      </c>
-      <c r="D30" s="20">
-        <v>300132316</v>
-      </c>
-      <c r="E30" t="s">
-        <v>596</v>
-      </c>
-      <c r="H30" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="20">
-        <v>300008439</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="B166" s="17">
+        <v>300379998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>597</v>
       </c>
-      <c r="F31" t="s">
-        <v>587</v>
-      </c>
-      <c r="G31" t="s">
-        <v>588</v>
-      </c>
-      <c r="H31" t="s">
-        <v>222</v>
-      </c>
-      <c r="I31" t="s">
-        <v>219</v>
-      </c>
-      <c r="J31" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C32" t="s">
-        <v>291</v>
-      </c>
-      <c r="D32" s="20">
-        <v>300120364</v>
-      </c>
-      <c r="E32" t="s">
-        <v>598</v>
-      </c>
-      <c r="F32" t="s">
-        <v>576</v>
-      </c>
-      <c r="H32" t="s">
-        <v>599</v>
-      </c>
-      <c r="I32" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>508</v>
-      </c>
-      <c r="C33" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="20">
-        <v>300132656</v>
-      </c>
-      <c r="E33" t="s">
-        <v>600</v>
-      </c>
-      <c r="H33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>509</v>
-      </c>
-      <c r="C34" t="s">
-        <v>319</v>
-      </c>
-      <c r="D34" s="20">
-        <v>300008217</v>
-      </c>
-      <c r="E34" t="s">
-        <v>601</v>
-      </c>
-      <c r="H34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>510</v>
-      </c>
-      <c r="C35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" s="20">
-        <v>300006075</v>
-      </c>
-      <c r="E35" t="s">
-        <v>602</v>
-      </c>
-      <c r="H35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>511</v>
-      </c>
-      <c r="C36" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="20">
-        <v>300257640</v>
-      </c>
-      <c r="E36" t="s">
-        <v>603</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H36" t="s">
-        <v>249</v>
-      </c>
-      <c r="I36" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>512</v>
-      </c>
-      <c r="C37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D37" s="20">
-        <v>300000277</v>
-      </c>
-      <c r="E37" t="s">
-        <v>604</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>513</v>
-      </c>
-      <c r="C38" t="s">
-        <v>514</v>
-      </c>
-      <c r="D38" s="20">
-        <v>300266060</v>
-      </c>
-      <c r="E38" t="s">
-        <v>605</v>
-      </c>
-      <c r="H38" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>515</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="20">
-        <v>300387318</v>
-      </c>
-      <c r="E39" t="s">
-        <v>606</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H39" t="s">
-        <v>607</v>
-      </c>
-      <c r="I39" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>516</v>
-      </c>
-      <c r="C40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="20">
-        <v>300000809</v>
-      </c>
-      <c r="E40" t="s">
-        <v>554</v>
-      </c>
-      <c r="F40" t="s">
-        <v>576</v>
-      </c>
-      <c r="G40" t="s">
-        <v>574</v>
-      </c>
-      <c r="H40" t="s">
-        <v>555</v>
-      </c>
-      <c r="I40" t="s">
-        <v>577</v>
-      </c>
-      <c r="J40" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>517</v>
-      </c>
-      <c r="C41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D41" s="20">
-        <v>300006165</v>
-      </c>
-      <c r="E41" t="s">
-        <v>608</v>
-      </c>
-      <c r="H41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>518</v>
-      </c>
-      <c r="C42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="20">
-        <v>300000401</v>
-      </c>
-      <c r="E42" t="s">
-        <v>609</v>
-      </c>
-      <c r="H42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>519</v>
-      </c>
-      <c r="C43" t="s">
-        <v>383</v>
-      </c>
-      <c r="D43" s="20">
-        <v>300008686</v>
-      </c>
-      <c r="E43" t="s">
-        <v>610</v>
-      </c>
-      <c r="H43" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>520</v>
-      </c>
-      <c r="C44" t="s">
-        <v>430</v>
-      </c>
-      <c r="D44" s="20">
-        <v>300008835</v>
-      </c>
-      <c r="E44" t="s">
-        <v>611</v>
-      </c>
-      <c r="H44" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>521</v>
-      </c>
-      <c r="C45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="20">
-        <v>300000390</v>
-      </c>
-      <c r="E45" t="s">
-        <v>612</v>
-      </c>
-      <c r="H45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>522</v>
-      </c>
-      <c r="C46" t="s">
-        <v>325</v>
-      </c>
-      <c r="D46" s="20">
-        <v>300386595</v>
-      </c>
-      <c r="E46" t="s">
-        <v>613</v>
-      </c>
-      <c r="F46" t="s">
-        <v>616</v>
-      </c>
-      <c r="H46" t="s">
-        <v>614</v>
-      </c>
-      <c r="I46" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>523</v>
-      </c>
-      <c r="C47" t="s">
-        <v>386</v>
-      </c>
-      <c r="D47" s="20">
-        <v>300259572</v>
-      </c>
-      <c r="E47" t="s">
-        <v>617</v>
-      </c>
-      <c r="H47" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>524</v>
-      </c>
-      <c r="C48" t="s">
-        <v>255</v>
-      </c>
-      <c r="D48" s="20">
-        <v>300000750</v>
-      </c>
-      <c r="E48" t="s">
-        <v>619</v>
-      </c>
-      <c r="H48" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>525</v>
-      </c>
-      <c r="C49" t="s">
-        <v>368</v>
-      </c>
-      <c r="D49" s="20">
-        <v>300008777</v>
-      </c>
-      <c r="E49" t="s">
-        <v>620</v>
-      </c>
-      <c r="H49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>526</v>
-      </c>
-      <c r="C50" t="s">
-        <v>306</v>
-      </c>
-      <c r="D50" s="20">
-        <v>300006617</v>
-      </c>
-      <c r="E50" t="s">
-        <v>621</v>
-      </c>
-      <c r="H50" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>527</v>
-      </c>
-      <c r="C51" t="s">
-        <v>312</v>
-      </c>
-      <c r="D51" s="20">
-        <v>300008591</v>
-      </c>
-      <c r="E51" t="s">
-        <v>622</v>
-      </c>
-      <c r="H51" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>528</v>
-      </c>
-      <c r="C52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="20">
-        <v>300387006</v>
-      </c>
-      <c r="E52" t="s">
-        <v>558</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H52" t="s">
-        <v>183</v>
-      </c>
-      <c r="I52" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>529</v>
-      </c>
-      <c r="C53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="20">
-        <v>300417317</v>
-      </c>
-      <c r="E53" t="s">
-        <v>624</v>
-      </c>
-      <c r="H53" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>530</v>
-      </c>
-      <c r="C54" t="s">
-        <v>303</v>
-      </c>
-      <c r="D54" s="20">
-        <v>300005072</v>
-      </c>
-      <c r="E54" t="s">
-        <v>625</v>
-      </c>
-      <c r="F54" t="s">
-        <v>626</v>
-      </c>
-      <c r="H54" t="s">
-        <v>304</v>
-      </c>
-      <c r="I54" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>531</v>
-      </c>
-      <c r="C55" t="s">
-        <v>389</v>
-      </c>
-      <c r="D55" s="20">
-        <v>300008805</v>
-      </c>
-      <c r="E55" t="s">
-        <v>628</v>
-      </c>
-      <c r="H55" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>532</v>
-      </c>
-      <c r="C56" t="s">
-        <v>448</v>
-      </c>
-      <c r="D56" s="20">
-        <v>300008687</v>
-      </c>
-      <c r="E56" t="s">
-        <v>629</v>
-      </c>
-      <c r="H56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>533</v>
-      </c>
-      <c r="C57" t="s">
-        <v>463</v>
-      </c>
-      <c r="D57" s="20">
-        <v>300185707</v>
-      </c>
-      <c r="E57" t="s">
-        <v>630</v>
-      </c>
-      <c r="H57" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>534</v>
-      </c>
-      <c r="C58" t="s">
-        <v>415</v>
-      </c>
-      <c r="D58" s="20">
-        <v>300008736</v>
-      </c>
-      <c r="E58" t="s">
-        <v>631</v>
-      </c>
-      <c r="H58" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>535</v>
-      </c>
-      <c r="C59" t="s">
-        <v>297</v>
-      </c>
-      <c r="D59" s="20">
-        <v>300387025</v>
-      </c>
-      <c r="E59" t="s">
-        <v>632</v>
-      </c>
-      <c r="H59" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>536</v>
-      </c>
-      <c r="C60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D60" s="20">
-        <v>300386845</v>
-      </c>
-      <c r="E60" t="s">
-        <v>634</v>
-      </c>
-      <c r="H60" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>537</v>
-      </c>
-      <c r="C61" t="s">
-        <v>395</v>
-      </c>
-      <c r="D61" s="20">
-        <v>300008761</v>
-      </c>
-      <c r="E61" t="s">
-        <v>635</v>
-      </c>
-      <c r="H61" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
-        <v>538</v>
-      </c>
-      <c r="C62" t="s">
-        <v>433</v>
-      </c>
-      <c r="D62" s="20">
-        <v>300008676</v>
-      </c>
-      <c r="E62" t="s">
-        <v>636</v>
-      </c>
-      <c r="H62" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
-        <v>539</v>
-      </c>
-      <c r="C63" t="s">
-        <v>350</v>
-      </c>
-      <c r="D63" s="20">
-        <v>300128176</v>
-      </c>
-      <c r="E63" t="s">
-        <v>638</v>
-      </c>
-      <c r="H63" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>540</v>
-      </c>
-      <c r="C64" t="s">
-        <v>421</v>
-      </c>
-      <c r="D64" s="20">
-        <v>300008899</v>
-      </c>
-      <c r="E64" t="s">
-        <v>639</v>
-      </c>
-      <c r="H64" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>541</v>
-      </c>
-      <c r="C65" t="s">
-        <v>264</v>
-      </c>
-      <c r="D65" s="20">
-        <v>300008057</v>
-      </c>
-      <c r="E65" t="s">
-        <v>640</v>
-      </c>
-      <c r="H65" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>542</v>
-      </c>
-      <c r="C66" t="s">
-        <v>407</v>
-      </c>
-      <c r="D66" s="20">
-        <v>300008678</v>
-      </c>
-      <c r="E66" t="s">
-        <v>641</v>
-      </c>
-      <c r="H66" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>543</v>
-      </c>
-      <c r="C67" t="s">
-        <v>454</v>
-      </c>
-      <c r="D67" s="20">
-        <v>300266571</v>
-      </c>
-      <c r="E67" t="s">
-        <v>642</v>
-      </c>
-      <c r="H67" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>544</v>
-      </c>
-      <c r="C68" t="s">
-        <v>353</v>
-      </c>
-      <c r="D68" s="20">
-        <v>300008760</v>
-      </c>
-      <c r="E68" t="s">
-        <v>643</v>
-      </c>
-      <c r="H68" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>545</v>
-      </c>
-      <c r="C69" t="s">
-        <v>436</v>
-      </c>
-      <c r="D69" s="20">
-        <v>300008679</v>
-      </c>
-      <c r="E69" t="s">
-        <v>644</v>
-      </c>
-      <c r="H69" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>546</v>
-      </c>
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="20">
-        <v>300387107</v>
-      </c>
-      <c r="E70" t="s">
-        <v>645</v>
-      </c>
-      <c r="H70" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>547</v>
-      </c>
-      <c r="C71" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="20">
-        <v>300006191</v>
-      </c>
-      <c r="E71" t="s">
-        <v>646</v>
-      </c>
-      <c r="H71" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>548</v>
-      </c>
-      <c r="C72" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="20">
-        <v>300120599</v>
-      </c>
-      <c r="E72" t="s">
-        <v>647</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="17">
-        <v>300008346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="17">
-        <v>300263063</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="17">
-        <v>300232418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" s="17">
-        <v>300000681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" s="17">
-        <v>300387007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" s="17">
-        <v>300235087</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="17">
-        <v>300387130</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" s="17">
-        <v>300264084</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="17">
-        <v>300000835</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>59</v>
-      </c>
-      <c r="D84" s="17">
-        <v>300387616</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>406</v>
-      </c>
-      <c r="D85" s="17">
-        <v>300266059</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="17">
-        <v>300387143</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>175</v>
-      </c>
-      <c r="D87" s="17">
-        <v>300000201</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" s="17">
-        <v>300387004</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="17">
-        <v>300264389</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>347</v>
-      </c>
-      <c r="D90" s="17">
-        <v>300008850</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
-        <v>401</v>
-      </c>
-      <c r="D91" s="17">
-        <v>300008746</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>398</v>
-      </c>
-      <c r="D92" s="17">
-        <v>300129031</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="17">
-        <v>300266755</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" s="17">
-        <v>300387000</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="17">
-        <v>300263489</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" s="17">
-        <v>300374944</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="17">
-        <v>300008389</v>
-      </c>
-      <c r="E97" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="17">
-        <v>300235115</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="17">
-        <v>300387203</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>178</v>
-      </c>
-      <c r="D100" s="17">
-        <v>300000202</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="17">
-        <v>300387268</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="17">
-        <v>300387506</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="17">
-        <v>300000771</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C104" t="s">
-        <v>466</v>
-      </c>
-      <c r="D104" s="17">
-        <v>300008932</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C105" t="s">
-        <v>62</v>
-      </c>
-      <c r="D105" s="17">
-        <v>300386114</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C106" t="s">
-        <v>276</v>
-      </c>
-      <c r="D106" s="17">
-        <v>300006084</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C107" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" s="17">
-        <v>300235114</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C108" t="s">
-        <v>356</v>
-      </c>
-      <c r="D108" s="17">
-        <v>300386860</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>37</v>
-      </c>
-      <c r="D109" s="17">
-        <v>300167671</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C110" t="s">
-        <v>252</v>
-      </c>
-      <c r="D110" s="17">
-        <v>300000705</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C111" t="s">
-        <v>362</v>
-      </c>
-      <c r="D111" s="17">
-        <v>300387498</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
-        <v>142</v>
-      </c>
-      <c r="D112" s="17">
-        <v>300235088</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
-        <v>57</v>
-      </c>
-      <c r="D113" s="17">
-        <v>300056006</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C114" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" s="17">
-        <v>300128214</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C115" t="s">
-        <v>100</v>
-      </c>
-      <c r="D115" s="17">
-        <v>300412029</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" s="17">
-        <v>300387184</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C117" t="s">
-        <v>166</v>
-      </c>
-      <c r="D117" s="17">
-        <v>300192630</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C118" t="s">
-        <v>404</v>
-      </c>
-      <c r="D118" s="17">
-        <v>300386857</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
-        <v>267</v>
-      </c>
-      <c r="D119" s="17">
-        <v>300008063</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C120" t="s">
-        <v>51</v>
-      </c>
-      <c r="D120" s="17">
-        <v>300387178</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C121" t="s">
-        <v>270</v>
-      </c>
-      <c r="D121" s="17">
-        <v>300006073</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C122" t="s">
-        <v>309</v>
-      </c>
-      <c r="D122" s="17">
-        <v>300155846</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C123" t="s">
-        <v>54</v>
-      </c>
-      <c r="D123" s="17">
-        <v>300387347</v>
-      </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C124" t="s">
-        <v>77</v>
-      </c>
-      <c r="D124" s="17">
-        <v>300387062</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C125" t="s">
-        <v>148</v>
-      </c>
-      <c r="D125" s="17">
-        <v>300235095</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C126" t="s">
-        <v>649</v>
-      </c>
-      <c r="D126" s="17">
-        <v>300235096</v>
-      </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="17">
-        <v>300387216</v>
-      </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C128" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="17">
-        <v>300008537</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C129" t="s">
-        <v>216</v>
-      </c>
-      <c r="D129" s="17">
-        <v>300164060</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C130" t="s">
-        <v>225</v>
-      </c>
-      <c r="D130" s="17">
-        <v>300410262</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>340</v>
-      </c>
-      <c r="D131" s="17">
-        <v>300132294</v>
-      </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C132" t="s">
-        <v>315</v>
-      </c>
-      <c r="D132" s="17">
-        <v>300008072</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
-        <v>294</v>
-      </c>
-      <c r="D133" s="17">
-        <v>300005734</v>
-      </c>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>337</v>
-      </c>
-      <c r="D134" s="17">
-        <v>300008321</v>
-      </c>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
-        <v>470</v>
-      </c>
-      <c r="D135" s="17">
-        <v>300008804</v>
-      </c>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
-        <v>163</v>
-      </c>
-      <c r="D136" s="17">
-        <v>300024979</v>
-      </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C137" t="s">
-        <v>328</v>
-      </c>
-      <c r="D137" s="17">
-        <v>300265367</v>
-      </c>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
-        <v>392</v>
-      </c>
-      <c r="D138" s="17">
-        <v>300132339</v>
-      </c>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
-        <v>65</v>
-      </c>
-      <c r="D139" s="17">
-        <v>300261086</v>
-      </c>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C140" t="s">
-        <v>106</v>
-      </c>
-      <c r="D140" s="17">
-        <v>300236157</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
-        <v>469</v>
-      </c>
-      <c r="D141" s="17">
-        <v>300417385</v>
-      </c>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C142" t="s">
-        <v>151</v>
-      </c>
-      <c r="D142" s="17">
-        <v>300235101</v>
-      </c>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
-        <v>231</v>
-      </c>
-      <c r="D143" s="17">
-        <v>300263741</v>
-      </c>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C144" t="s">
-        <v>410</v>
-      </c>
-      <c r="D144" s="17">
-        <v>300132312</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
-        <v>322</v>
-      </c>
-      <c r="D145" s="17">
-        <v>300265365</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>34</v>
-      </c>
-      <c r="D146" s="17">
-        <v>300008542</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
-        <v>198</v>
-      </c>
-      <c r="D147" s="17">
-        <v>300386998</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C148" t="s">
-        <v>442</v>
-      </c>
-      <c r="D148" s="17">
-        <v>300266556</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
-        <v>154</v>
-      </c>
-      <c r="D149" s="17">
-        <v>300235105</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>46</v>
-      </c>
-      <c r="D150" s="17">
-        <v>300239103</v>
-      </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
-        <v>445</v>
-      </c>
-      <c r="D151" s="17">
-        <v>300266558</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
-        <v>68</v>
-      </c>
-      <c r="D152" s="17">
-        <v>300232420</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
-        <v>418</v>
-      </c>
-      <c r="D153" s="17">
-        <v>300008697</v>
-      </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
-        <v>650</v>
-      </c>
-      <c r="D154" s="17">
-        <v>300008699</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>157</v>
-      </c>
-      <c r="D155" s="17">
-        <v>300235106</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
-        <v>118</v>
-      </c>
-      <c r="D156" s="17">
-        <v>300135982</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" s="17">
-        <v>300008375</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C158" t="s">
-        <v>331</v>
-      </c>
-      <c r="D158" s="17">
-        <v>300265366</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C159" t="s">
-        <v>234</v>
-      </c>
-      <c r="D159" s="17">
-        <v>300000678</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
-        <v>317</v>
-      </c>
-      <c r="D160" s="17">
-        <v>300122438</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C161" t="s">
-        <v>74</v>
-      </c>
-      <c r="D161" s="17">
-        <v>300403959</v>
-      </c>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" s="17">
-        <v>300008372</v>
-      </c>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>334</v>
-      </c>
-      <c r="D163" s="17">
-        <v>300008312</v>
-      </c>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C164" t="s">
-        <v>460</v>
-      </c>
-      <c r="D164" s="17">
-        <v>300387029</v>
+      <c r="B167" s="17">
+        <v>300386846</v>
       </c>
     </row>
   </sheetData>

--- a/feature-types-AAT_20210118.xlsx
+++ b/feature-types-AAT_20210118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/linked-places/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85FF75-A788-7543-AA38-B217E255CFAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70EE561-4D48-754B-9674-2D875093229E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="26560" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="aat concepts of interest" sheetId="1" r:id="rId1"/>
     <sheet name="wikidata mappings (partial)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2376,8 +2376,8 @@
   <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
